--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/99/word_level_predictions_99.xlsx
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G96" s="2" t="b">
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="I96" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K96" s="2" t="b">
@@ -11422,364 +11422,364 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="F212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12722,158 +12722,158 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>15</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>4</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" t="n">
         <v>15</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" t="n">
         <v>5</v>
       </c>
-      <c r="E238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F238" s="2" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" t="n">
         <v>15</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" t="n">
         <v>6</v>
       </c>
-      <c r="E239" s="2" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/99/word_level_predictions_99.xlsx
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G96" s="2" t="b">
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="I96" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K96" s="2" t="b">
@@ -11422,364 +11422,364 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>13</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>5</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" s="2" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>13</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>6</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>13</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>7</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>13</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>8</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>13</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>9</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>13</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>10</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>13</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>11</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" s="2" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12722,158 +12722,158 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
+      <c r="A238" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D238" t="n">
+      <c r="D238" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E238" t="inlineStr">
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
+      <c r="A239" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D239" t="n">
+      <c r="D239" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E239" t="inlineStr">
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
